--- a/va_facility_data_2025-02-20/Gene Taylor Veterans' Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Gene%20Taylor%20Veterans%27%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Gene Taylor Veterans' Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Gene%20Taylor%20Veterans%27%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rac8527fc30974bfd87cf823f6408aa48"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf3e4fc900cef4793a0821129e1f67e5a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R36b50d7049714ca6bddb4ff509d3475b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd25fd51c12134586b51380bb5618e9f1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra05217f1dea14fcdb24481b33ff5ec8c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra5455297c4ad42038871f1d3c946134e"/>
   </x:sheets>
 </x:workbook>
 </file>
